--- a/data/3.meta_data/matrices/0053e.xlsx
+++ b/data/3.meta_data/matrices/0053e.xlsx
@@ -14125,7 +14125,7 @@
         <v>-0.1221400688501237</v>
       </c>
       <c r="BS55">
-        <v>9.620611723951087e-06</v>
+        <v>9.620611723951087E-06</v>
       </c>
       <c r="BT55">
         <v>-0.2008864638115255</v>
@@ -18290,7 +18290,7 @@
         <v>-0.06533194099931326</v>
       </c>
       <c r="BB72">
-        <v>9.620611723951087e-06</v>
+        <v>9.620611723951087E-06</v>
       </c>
       <c r="BC72">
         <v>0.1316914846655639</v>
